--- a/Lab1.3/Requirements Source Traceability Matrix.xlsx
+++ b/Lab1.3/Requirements Source Traceability Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21520946_ms_uit_edu_vn/Documents/School/HK5/Kỹ thuật phân tích yêu cầu - SE357.O12.PMCL/Lab/Lab1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21520946_ms_uit_edu_vn/Documents/School/HK5/Kỹ thuật phân tích yêu cầu - SE357.O12.PMCL/Lab/Lab1/Submit/Lab1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC104852395964225BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{418CCBE6-0C46-4B75-97DA-FA811B9B28FB}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_F25DC773A252ABDACC104852395964225BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A22931-F2E6-455F-BAC8-9CED28DD2862}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,65 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Features </t>
   </si>
   <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>Thêm sản phẩm</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa sản phẩm</t>
-  </si>
-  <si>
-    <t>Tìm kiếm sản phẩm</t>
-  </si>
-  <si>
-    <t>Xóa sản phẩm</t>
-  </si>
-  <si>
-    <t>Nhập hàng</t>
-  </si>
-  <si>
-    <t>Xuất hàng</t>
-  </si>
-  <si>
-    <t>Xuất hóa đơn bảo hành</t>
-  </si>
-  <si>
-    <t>Kiểm tra bảo hành</t>
-  </si>
-  <si>
-    <t>Thêm nhân viên</t>
-  </si>
-  <si>
-    <t>Tìm kiếm nhân viên</t>
-  </si>
-  <si>
-    <t>Sửa thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa quyền</t>
-  </si>
-  <si>
-    <t>Tạo nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Cập nhật  nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Xóa nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Xem thông tin nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Xem lịch sử chỉnh sửa nhà cung cấp</t>
-  </si>
-  <si>
     <t>RequirementID</t>
   </si>
   <si>
@@ -91,6 +37,108 @@
   </si>
   <si>
     <t>Staff requirement</t>
+  </si>
+  <si>
+    <t>Authenticate</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>Send mass email</t>
+  </si>
+  <si>
+    <t>View customer</t>
+  </si>
+  <si>
+    <t>Contact customer</t>
+  </si>
+  <si>
+    <t>View customer request</t>
+  </si>
+  <si>
+    <t>Edit customer status</t>
+  </si>
+  <si>
+    <t>View request</t>
+  </si>
+  <si>
+    <t>Reject report request</t>
+  </si>
+  <si>
+    <t>Request report</t>
+  </si>
+  <si>
+    <t>Cancel report request</t>
+  </si>
+  <si>
+    <t>Create report</t>
+  </si>
+  <si>
+    <t>Change staff profile</t>
+  </si>
+  <si>
+    <t>View timekeeping list</t>
+  </si>
+  <si>
+    <t>Note in timekeeping list</t>
+  </si>
+  <si>
+    <t>Add timekeeping list</t>
+  </si>
+  <si>
+    <t>Add staff</t>
+  </si>
+  <si>
+    <t>View staff</t>
+  </si>
+  <si>
+    <t>Terminate the labor contract with a staff member</t>
+  </si>
+  <si>
+    <t>View applicants</t>
+  </si>
+  <si>
+    <t>Make interview appointment</t>
+  </si>
+  <si>
+    <t>View interview result</t>
+  </si>
+  <si>
+    <t>Reject applicant</t>
+  </si>
+  <si>
+    <t>Create training lists</t>
+  </si>
+  <si>
+    <t>Send interview result to applicant</t>
+  </si>
+  <si>
+    <t>Create department</t>
+  </si>
+  <si>
+    <t>Edit department profile</t>
+  </si>
+  <si>
+    <t>Delete department</t>
+  </si>
+  <si>
+    <t>View department</t>
+  </si>
+  <si>
+    <t>View department's change history</t>
+  </si>
+  <si>
+    <t>Edit staff permission</t>
+  </si>
+  <si>
+    <t>HR Staff requirement</t>
+  </si>
+  <si>
+    <t>Customer service Staff requirement</t>
   </si>
 </sst>
 </file>
@@ -141,18 +189,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,39 +489,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -473,13 +537,15 @@
       <c r="D2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -487,13 +553,15 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -501,13 +569,15 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -515,69 +585,79 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -585,114 +665,364 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
